--- a/data/Rivers/KaitokeatVectorGasLine_807b3eac70.xlsx
+++ b/data/Rivers/KaitokeatVectorGasLine_807b3eac70.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -535,7 +535,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -574,7 +574,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -652,7 +652,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -695,7 +695,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -738,7 +738,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -781,7 +781,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -820,7 +820,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -859,7 +859,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -898,7 +898,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -941,7 +941,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -980,7 +980,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1792,7 +1792,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1999,7 +1999,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -2405,7 +2405,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -2444,7 +2444,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2565,7 +2565,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2682,7 +2682,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2725,7 +2725,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2768,7 +2768,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2850,7 +2850,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2889,7 +2889,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2928,7 +2928,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -3010,7 +3010,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -3088,7 +3088,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -3131,7 +3131,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -3174,7 +3174,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -3217,7 +3217,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -3295,7 +3295,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -3334,7 +3334,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
@@ -3377,7 +3377,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -3494,7 +3494,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
@@ -3537,7 +3537,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
@@ -3623,7 +3623,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -3662,7 +3662,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
@@ -3701,7 +3701,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
@@ -3740,7 +3740,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
@@ -3822,7 +3822,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -3900,7 +3900,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -4029,7 +4029,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
@@ -4068,7 +4068,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -4189,7 +4189,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -4228,7 +4228,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
@@ -4306,7 +4306,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -4349,7 +4349,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -4392,7 +4392,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
@@ -4435,7 +4435,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
@@ -4474,7 +4474,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
@@ -4513,7 +4513,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -4595,7 +4595,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -4634,7 +4634,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
@@ -4712,7 +4712,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C107" s="2" t="n">
@@ -4798,7 +4798,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
@@ -4841,7 +4841,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
@@ -4880,7 +4880,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
@@ -5001,7 +5001,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
@@ -5040,7 +5040,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
@@ -5118,7 +5118,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C117" s="2" t="n">
@@ -5204,7 +5204,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
@@ -5247,7 +5247,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C119" s="2" t="n">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
@@ -5325,7 +5325,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
@@ -5407,7 +5407,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C123" s="2" t="n">
@@ -5446,7 +5446,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C124" s="2" t="n">
@@ -5524,7 +5524,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
@@ -5567,7 +5567,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C127" s="2" t="n">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C128" s="2" t="n">
@@ -5653,7 +5653,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C129" s="2" t="n">
@@ -5692,7 +5692,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C130" s="2" t="n">
@@ -5731,7 +5731,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C131" s="2" t="n">
@@ -5770,7 +5770,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C132" s="2" t="n">
@@ -5813,7 +5813,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
@@ -5852,7 +5852,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C134" s="2" t="n">
@@ -5930,7 +5930,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C136" s="2" t="n">
@@ -5973,7 +5973,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C137" s="2" t="n">
@@ -6016,7 +6016,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C138" s="2" t="n">
@@ -6059,7 +6059,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C139" s="2" t="n">
@@ -6098,7 +6098,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C140" s="2" t="n">
@@ -6137,7 +6137,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C141" s="2" t="n">
@@ -6176,7 +6176,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C142" s="2" t="n">
@@ -6219,7 +6219,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C143" s="2" t="n">
@@ -6258,7 +6258,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C144" s="2" t="n">
@@ -6336,7 +6336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C146" s="2" t="n">
@@ -6379,7 +6379,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C147" s="2" t="n">
@@ -6422,7 +6422,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C148" s="2" t="n">
@@ -6465,7 +6465,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C149" s="2" t="n">
@@ -6504,7 +6504,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C150" s="2" t="n">
@@ -6543,7 +6543,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C151" s="2" t="n">
@@ -6582,7 +6582,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C152" s="2" t="n">
@@ -6625,7 +6625,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C153" s="2" t="n">
@@ -6668,7 +6668,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C154" s="2" t="n">
@@ -6707,7 +6707,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C155" s="2" t="n">
@@ -6785,7 +6785,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C157" s="2" t="n">
@@ -6828,7 +6828,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C158" s="2" t="n">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C159" s="2" t="n">
@@ -6914,7 +6914,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C160" s="2" t="n">
@@ -6953,7 +6953,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C161" s="2" t="n">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C162" s="2" t="n">
@@ -7031,7 +7031,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C163" s="2" t="n">
@@ -7074,7 +7074,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C164" s="2" t="n">
@@ -7113,7 +7113,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C165" s="2" t="n">
@@ -7191,7 +7191,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C167" s="2" t="n">
@@ -7234,7 +7234,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C168" s="2" t="n">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C169" s="2" t="n">
@@ -7320,7 +7320,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C170" s="2" t="n">
@@ -7359,7 +7359,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C171" s="2" t="n">
@@ -7398,7 +7398,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C172" s="2" t="n">
@@ -7437,7 +7437,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C173" s="2" t="n">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C174" s="2" t="n">
@@ -7523,7 +7523,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C175" s="2" t="n">
@@ -7562,7 +7562,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C176" s="2" t="n">
@@ -7640,7 +7640,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C178" s="2" t="n">
@@ -7683,7 +7683,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C179" s="2" t="n">
@@ -7726,7 +7726,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C180" s="2" t="n">
@@ -7769,7 +7769,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C181" s="2" t="n">
@@ -7808,7 +7808,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C182" s="2" t="n">
@@ -7847,7 +7847,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C183" s="2" t="n">
@@ -7886,7 +7886,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C184" s="2" t="n">
@@ -7929,7 +7929,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C185" s="2" t="n">
@@ -7968,7 +7968,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C186" s="2" t="n">
@@ -8046,7 +8046,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C188" s="2" t="n">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C189" s="2" t="n">
@@ -8132,7 +8132,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C190" s="2" t="n">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C191" s="2" t="n">
@@ -8214,7 +8214,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C192" s="2" t="n">
@@ -8253,7 +8253,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C193" s="2" t="n">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C194" s="2" t="n">
@@ -8335,7 +8335,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C195" s="2" t="n">
@@ -8374,7 +8374,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C196" s="2" t="n">
@@ -8452,7 +8452,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C198" s="2" t="n">
@@ -8495,7 +8495,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C199" s="2" t="n">
@@ -8538,7 +8538,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C200" s="2" t="n">
@@ -8581,7 +8581,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C201" s="2" t="n">
@@ -8620,7 +8620,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C202" s="2" t="n">
@@ -8659,7 +8659,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C203" s="2" t="n">
@@ -8698,7 +8698,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C204" s="2" t="n">
@@ -8741,7 +8741,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C205" s="2" t="n">
@@ -8784,7 +8784,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C206" s="2" t="n">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C207" s="2" t="n">
@@ -8866,7 +8866,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C208" s="2" t="n">
@@ -8944,7 +8944,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C210" s="2" t="n">
@@ -8987,7 +8987,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C211" s="2" t="n">
@@ -9030,7 +9030,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C212" s="2" t="n">
@@ -9073,7 +9073,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C213" s="2" t="n">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C214" s="2" t="n">
@@ -9151,7 +9151,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C215" s="2" t="n">
@@ -9190,7 +9190,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C216" s="2" t="n">
@@ -9233,7 +9233,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C217" s="2" t="n">
@@ -9276,7 +9276,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C218" s="2" t="n">
@@ -9315,7 +9315,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C219" s="2" t="n">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C220" s="2" t="n">
@@ -9436,7 +9436,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C222" s="2" t="n">
@@ -9479,7 +9479,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C223" s="2" t="n">
@@ -9522,7 +9522,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C224" s="2" t="n">
@@ -9565,7 +9565,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C225" s="2" t="n">
@@ -9604,7 +9604,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C226" s="2" t="n">
@@ -9643,7 +9643,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C227" s="2" t="n">
@@ -9682,7 +9682,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C228" s="2" t="n">
@@ -9725,7 +9725,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C229" s="2" t="n">
@@ -9764,7 +9764,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C230" s="2" t="n">
@@ -9807,7 +9807,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C231" s="2" t="n">
@@ -9885,7 +9885,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C233" s="2" t="n">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C234" s="2" t="n">
@@ -9971,7 +9971,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C235" s="2" t="n">
@@ -10014,7 +10014,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C236" s="2" t="n">
@@ -10053,7 +10053,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C237" s="2" t="n">
@@ -10092,7 +10092,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C238" s="2" t="n">
@@ -10131,7 +10131,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C239" s="2" t="n">
@@ -10174,7 +10174,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C240" s="2" t="n">
@@ -10217,7 +10217,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C241" s="2" t="n">
@@ -10256,7 +10256,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C242" s="2" t="n">
@@ -10299,7 +10299,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C243" s="2" t="n">
@@ -10377,7 +10377,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C245" s="2" t="n">
@@ -10420,7 +10420,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C246" s="2" t="n">
@@ -10463,7 +10463,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C247" s="2" t="n">
@@ -10506,7 +10506,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C248" s="2" t="n">
@@ -10545,7 +10545,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C249" s="2" t="n">
@@ -10584,7 +10584,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C250" s="2" t="n">
@@ -10623,7 +10623,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C251" s="2" t="n">
@@ -10666,7 +10666,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C252" s="2" t="n">
@@ -10709,7 +10709,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C253" s="2" t="n">
@@ -10748,7 +10748,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C254" s="2" t="n">
@@ -10791,7 +10791,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C255" s="2" t="n">
@@ -10869,7 +10869,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C257" s="2" t="n">
@@ -10912,7 +10912,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C258" s="2" t="n">
@@ -10955,7 +10955,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C259" s="2" t="n">
@@ -10998,7 +10998,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C260" s="2" t="n">
@@ -11037,7 +11037,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C261" s="2" t="n">
@@ -11076,7 +11076,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C262" s="2" t="n">
@@ -11115,7 +11115,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C263" s="2" t="n">
@@ -11158,7 +11158,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C264" s="2" t="n">
@@ -11197,7 +11197,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C265" s="2" t="n">
@@ -11240,7 +11240,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C266" s="2" t="n">
@@ -11318,7 +11318,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C268" s="2" t="n">
@@ -11361,7 +11361,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C269" s="2" t="n">
@@ -11404,7 +11404,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C270" s="2" t="n">
@@ -11447,7 +11447,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C271" s="2" t="n">
@@ -11486,7 +11486,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C272" s="2" t="n">
@@ -11525,7 +11525,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C273" s="2" t="n">
@@ -11564,7 +11564,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C274" s="2" t="n">
@@ -11607,7 +11607,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C275" s="2" t="n">
@@ -11650,7 +11650,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C276" s="2" t="n">
@@ -11689,7 +11689,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C277" s="2" t="n">
@@ -11732,7 +11732,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C278" s="2" t="n">
@@ -11810,7 +11810,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C280" s="2" t="n">
@@ -11853,7 +11853,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C281" s="2" t="n">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C282" s="2" t="n">
@@ -11939,7 +11939,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C283" s="2" t="n">
@@ -11978,7 +11978,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C284" s="2" t="n">
@@ -12017,7 +12017,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C285" s="2" t="n">
@@ -12056,7 +12056,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C286" s="2" t="n">
@@ -12099,7 +12099,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C287" s="2" t="n">
@@ -12138,7 +12138,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C288" s="2" t="n">
@@ -12181,7 +12181,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C289" s="2" t="n">
@@ -12259,7 +12259,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C291" s="2" t="n">
@@ -12302,7 +12302,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C292" s="2" t="n">
@@ -12345,7 +12345,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C293" s="2" t="n">
@@ -12388,7 +12388,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C294" s="2" t="n">
@@ -12427,7 +12427,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C295" s="2" t="n">
@@ -12466,7 +12466,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C296" s="2" t="n">
@@ -12505,7 +12505,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C297" s="2" t="n">
@@ -12548,7 +12548,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C298" s="2" t="n">
@@ -12591,7 +12591,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C299" s="2" t="n">
@@ -12630,7 +12630,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C300" s="2" t="n">
@@ -12673,7 +12673,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C301" s="2" t="n">
@@ -12751,7 +12751,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C303" s="2" t="n">
@@ -12794,7 +12794,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C304" s="2" t="n">
@@ -12837,7 +12837,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C305" s="2" t="n">
@@ -12880,7 +12880,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C306" s="2" t="n">
@@ -12919,7 +12919,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C307" s="2" t="n">
@@ -12958,7 +12958,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C308" s="2" t="n">
@@ -12997,7 +12997,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C309" s="2" t="n">
@@ -13040,7 +13040,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C310" s="2" t="n">
@@ -13079,7 +13079,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C311" s="2" t="n">
@@ -13122,7 +13122,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C312" s="2" t="n">
@@ -13200,7 +13200,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C314" s="2" t="n">
@@ -13243,7 +13243,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C315" s="2" t="n">
@@ -13286,7 +13286,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C316" s="2" t="n">
@@ -13329,7 +13329,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C317" s="2" t="n">
@@ -13368,7 +13368,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C318" s="2" t="n">
@@ -13407,7 +13407,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C319" s="2" t="n">
@@ -13446,7 +13446,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C320" s="2" t="n">
@@ -13489,7 +13489,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C321" s="2" t="n">
@@ -13528,7 +13528,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C322" s="2" t="n">
@@ -13571,7 +13571,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C323" s="2" t="n">
@@ -13649,7 +13649,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C325" s="2" t="n">
@@ -13692,7 +13692,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C326" s="2" t="n">
@@ -13735,7 +13735,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C327" s="2" t="n">
@@ -13778,7 +13778,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C328" s="2" t="n">
@@ -13817,7 +13817,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C329" s="2" t="n">
@@ -13856,7 +13856,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C330" s="2" t="n">
@@ -13895,7 +13895,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C331" s="2" t="n">
@@ -13938,7 +13938,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C332" s="2" t="n">
@@ -13977,7 +13977,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C333" s="2" t="n">
@@ -14020,7 +14020,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C334" s="2" t="n">
@@ -14098,7 +14098,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C336" s="2" t="n">
@@ -14141,7 +14141,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C337" s="2" t="n">
@@ -14184,7 +14184,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C338" s="2" t="n">
@@ -14227,7 +14227,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C339" s="2" t="n">
@@ -14266,7 +14266,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C340" s="2" t="n">
@@ -14305,7 +14305,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C341" s="2" t="n">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C342" s="2" t="n">
@@ -14387,7 +14387,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C343" s="2" t="n">
@@ -14430,7 +14430,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C344" s="2" t="n">
@@ -14469,7 +14469,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C345" s="2" t="n">
@@ -14512,7 +14512,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C346" s="2" t="n">
@@ -14590,7 +14590,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C348" s="2" t="n">
@@ -14633,7 +14633,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C349" s="2" t="n">
@@ -14676,7 +14676,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C350" s="2" t="n">
@@ -14719,7 +14719,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C351" s="2" t="n">
@@ -14758,7 +14758,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C352" s="2" t="n">
@@ -14797,7 +14797,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C353" s="2" t="n">
@@ -14836,7 +14836,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C354" s="2" t="n">
@@ -14879,7 +14879,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C355" s="2" t="n">
@@ -14918,7 +14918,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C356" s="2" t="n">
@@ -14961,7 +14961,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C357" s="2" t="n">
@@ -15039,7 +15039,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C359" s="2" t="n">
@@ -15082,7 +15082,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C360" s="2" t="n">
@@ -15125,7 +15125,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C361" s="2" t="n">
@@ -15168,7 +15168,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C362" s="2" t="n">
@@ -15207,7 +15207,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C363" s="2" t="n">
@@ -15246,7 +15246,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C364" s="2" t="n">
@@ -15285,7 +15285,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C365" s="2" t="n">
@@ -15328,7 +15328,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C366" s="2" t="n">
@@ -15371,7 +15371,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C367" s="2" t="n">
@@ -15410,7 +15410,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C368" s="2" t="n">
@@ -15453,7 +15453,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C369" s="2" t="n">
@@ -15531,7 +15531,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C371" s="2" t="n">
@@ -15574,7 +15574,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C372" s="2" t="n">
@@ -15617,7 +15617,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C373" s="2" t="n">
@@ -15660,7 +15660,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C374" s="2" t="n">
@@ -15699,7 +15699,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C375" s="2" t="n">
@@ -15738,7 +15738,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C376" s="2" t="n">
@@ -15777,7 +15777,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C377" s="2" t="n">
@@ -15820,7 +15820,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C378" s="2" t="n">
@@ -15863,7 +15863,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C379" s="2" t="n">
@@ -15902,7 +15902,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C380" s="2" t="n">
@@ -15945,7 +15945,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C381" s="2" t="n">
@@ -16023,7 +16023,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C383" s="2" t="n">
@@ -16066,7 +16066,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C384" s="2" t="n">
@@ -16109,7 +16109,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C385" s="2" t="n">
@@ -16152,7 +16152,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C386" s="2" t="n">
@@ -16191,7 +16191,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C387" s="2" t="n">
@@ -16230,7 +16230,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C388" s="2" t="n">
@@ -16269,7 +16269,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C389" s="2" t="n">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C390" s="2" t="n">
@@ -16351,7 +16351,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C391" s="2" t="n">
@@ -16394,7 +16394,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C392" s="2" t="n">
@@ -16472,7 +16472,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C394" s="2" t="n">
@@ -16515,7 +16515,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C395" s="2" t="n">
@@ -16558,7 +16558,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C396" s="2" t="n">
@@ -16601,7 +16601,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C397" s="2" t="n">
@@ -16640,7 +16640,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C398" s="2" t="n">
@@ -16679,7 +16679,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C399" s="2" t="n">
@@ -16718,7 +16718,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C400" s="2" t="n">
@@ -16761,7 +16761,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C401" s="2" t="n">
@@ -16800,7 +16800,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C402" s="2" t="n">
@@ -16843,7 +16843,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C403" s="2" t="n">
@@ -16921,7 +16921,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C405" s="2" t="n">
@@ -16964,7 +16964,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C406" s="2" t="n">
@@ -17007,7 +17007,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C407" s="2" t="n">
@@ -17050,7 +17050,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C408" s="2" t="n">
@@ -17089,7 +17089,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C409" s="2" t="n">
@@ -17128,7 +17128,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C410" s="2" t="n">
@@ -17167,7 +17167,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C411" s="2" t="n">
@@ -17210,7 +17210,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C412" s="2" t="n">
@@ -17249,7 +17249,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C413" s="2" t="n">
@@ -17292,7 +17292,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C414" s="2" t="n">
@@ -17370,7 +17370,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C416" s="2" t="n">
@@ -17413,7 +17413,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C417" s="2" t="n">
@@ -17456,7 +17456,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C418" s="2" t="n">
@@ -17499,7 +17499,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C419" s="2" t="n">
@@ -17538,7 +17538,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C420" s="2" t="n">
@@ -17577,7 +17577,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C421" s="2" t="n">
@@ -17616,7 +17616,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C422" s="2" t="n">
@@ -17659,7 +17659,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C423" s="2" t="n">
@@ -17698,7 +17698,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C424" s="2" t="n">
@@ -17741,7 +17741,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C425" s="2" t="n">
@@ -17819,7 +17819,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C427" s="2" t="n">
@@ -17862,7 +17862,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C428" s="2" t="n">
@@ -17905,7 +17905,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C429" s="2" t="n">
@@ -17948,7 +17948,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C430" s="2" t="n">
@@ -17987,7 +17987,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C431" s="2" t="n">
@@ -18026,7 +18026,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C432" s="2" t="n">
@@ -18065,7 +18065,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C433" s="2" t="n">
@@ -18108,7 +18108,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C434" s="2" t="n">
@@ -18147,7 +18147,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C435" s="2" t="n">
@@ -18190,7 +18190,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C436" s="2" t="n">
@@ -18268,7 +18268,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C438" s="2" t="n">
@@ -18311,7 +18311,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C439" s="2" t="n">
@@ -18354,7 +18354,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C440" s="2" t="n">
@@ -18397,7 +18397,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C441" s="2" t="n">
@@ -18436,7 +18436,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C442" s="2" t="n">
@@ -18475,7 +18475,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C443" s="2" t="n">
@@ -18514,7 +18514,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C444" s="2" t="n">
@@ -18557,7 +18557,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C445" s="2" t="n">
@@ -18596,7 +18596,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C446" s="2" t="n">
@@ -18639,7 +18639,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C447" s="2" t="n">
@@ -18717,7 +18717,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C449" s="2" t="n">
@@ -18760,7 +18760,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C450" s="2" t="n">
@@ -18803,7 +18803,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C451" s="2" t="n">
@@ -18846,7 +18846,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C452" s="2" t="n">
@@ -18885,7 +18885,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C453" s="2" t="n">
@@ -18924,7 +18924,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C454" s="2" t="n">
@@ -18963,7 +18963,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C455" s="2" t="n">
@@ -19006,7 +19006,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C456" s="2" t="n">
@@ -19045,7 +19045,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C457" s="2" t="n">
@@ -19088,7 +19088,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C458" s="2" t="n">
@@ -19166,7 +19166,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C460" s="2" t="n">
@@ -19209,7 +19209,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C461" s="2" t="n">
@@ -19252,7 +19252,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C462" s="2" t="n">
@@ -19295,7 +19295,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C463" s="2" t="n">
@@ -19334,7 +19334,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C464" s="2" t="n">
@@ -19373,7 +19373,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C465" s="2" t="n">
@@ -19412,7 +19412,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C466" s="2" t="n">
@@ -19455,7 +19455,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C467" s="2" t="n">
@@ -19498,7 +19498,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C468" s="2" t="n">
@@ -19537,7 +19537,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C469" s="2" t="n">
@@ -19580,7 +19580,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C470" s="2" t="n">
@@ -19658,7 +19658,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C472" s="2" t="n">
@@ -19701,7 +19701,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C473" s="2" t="n">
@@ -19744,7 +19744,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C474" s="2" t="n">
@@ -19787,7 +19787,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C475" s="2" t="n">
@@ -19826,7 +19826,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C476" s="2" t="n">
@@ -19865,7 +19865,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C477" s="2" t="n">
@@ -19904,7 +19904,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C478" s="2" t="n">
@@ -19947,7 +19947,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C479" s="2" t="n">
@@ -19990,7 +19990,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C480" s="2" t="n">
@@ -20029,7 +20029,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C481" s="2" t="n">
@@ -20072,7 +20072,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C482" s="2" t="n">
@@ -20150,7 +20150,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C484" s="2" t="n">
@@ -20193,7 +20193,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C485" s="2" t="n">
@@ -20236,7 +20236,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C486" s="2" t="n">
@@ -20279,7 +20279,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C487" s="2" t="n">
@@ -20318,7 +20318,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C488" s="2" t="n">
@@ -20357,7 +20357,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C489" s="2" t="n">
@@ -20396,7 +20396,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C490" s="2" t="n">
@@ -20439,7 +20439,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C491" s="2" t="n">
@@ -20482,7 +20482,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C492" s="2" t="n">
@@ -20521,7 +20521,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C493" s="2" t="n">
@@ -20564,7 +20564,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C494" s="2" t="n">
@@ -20642,7 +20642,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C496" s="2" t="n">
@@ -20685,7 +20685,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C497" s="2" t="n">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C498" s="2" t="n">
@@ -20771,7 +20771,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C499" s="2" t="n">
@@ -20810,7 +20810,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C500" s="2" t="n">
@@ -20849,7 +20849,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C501" s="2" t="n">
@@ -20888,7 +20888,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C502" s="2" t="n">
@@ -20931,7 +20931,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C503" s="2" t="n">
@@ -20974,7 +20974,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C504" s="2" t="n">
@@ -21013,7 +21013,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C505" s="2" t="n">
@@ -21056,7 +21056,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C506" s="2" t="n">
@@ -21134,7 +21134,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C508" s="2" t="n">
@@ -21177,7 +21177,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C509" s="2" t="n">
@@ -21220,7 +21220,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C510" s="2" t="n">
@@ -21263,7 +21263,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C511" s="2" t="n">
@@ -21302,7 +21302,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C512" s="2" t="n">
@@ -21341,7 +21341,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C513" s="2" t="n">
@@ -21380,7 +21380,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C514" s="2" t="n">
@@ -21423,7 +21423,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C515" s="2" t="n">
@@ -21462,7 +21462,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C516" s="2" t="n">
@@ -21505,7 +21505,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C517" s="2" t="n">
@@ -21583,7 +21583,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C519" s="2" t="n">
@@ -21626,7 +21626,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C520" s="2" t="n">
@@ -21669,7 +21669,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C521" s="2" t="n">
@@ -21712,7 +21712,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C522" s="2" t="n">
@@ -21751,7 +21751,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C523" s="2" t="n">
@@ -21790,7 +21790,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C524" s="2" t="n">
@@ -21829,7 +21829,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C525" s="2" t="n">
@@ -21872,7 +21872,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C526" s="2" t="n">
@@ -21915,7 +21915,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C527" s="2" t="n">
@@ -21954,7 +21954,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C528" s="2" t="n">
@@ -21997,7 +21997,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C529" s="2" t="n">
@@ -22075,7 +22075,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C531" s="2" t="n">
@@ -22118,7 +22118,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C532" s="2" t="n">
@@ -22161,7 +22161,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C533" s="2" t="n">
@@ -22204,7 +22204,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C534" s="2" t="n">
@@ -22243,7 +22243,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C535" s="2" t="n">
@@ -22282,7 +22282,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C536" s="2" t="n">
@@ -22321,7 +22321,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C537" s="2" t="n">
@@ -22364,7 +22364,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C538" s="2" t="n">
@@ -22407,7 +22407,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C539" s="2" t="n">
@@ -22446,7 +22446,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C540" s="2" t="n">
@@ -22489,7 +22489,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C541" s="2" t="n">
@@ -22567,7 +22567,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C543" s="2" t="n">
@@ -22610,7 +22610,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C544" s="2" t="n">
@@ -22653,7 +22653,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C545" s="2" t="n">
@@ -22696,7 +22696,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C546" s="2" t="n">
@@ -22735,7 +22735,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C547" s="2" t="n">
@@ -22774,7 +22774,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C548" s="2" t="n">
@@ -22813,7 +22813,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C549" s="2" t="n">
@@ -22856,7 +22856,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C550" s="2" t="n">
@@ -22895,7 +22895,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C551" s="2" t="n">
@@ -22938,7 +22938,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C552" s="2" t="n">
@@ -23016,7 +23016,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C554" s="2" t="n">
@@ -23059,7 +23059,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C555" s="2" t="n">
@@ -23102,7 +23102,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C556" s="2" t="n">
@@ -23145,7 +23145,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C557" s="2" t="n">
@@ -23184,7 +23184,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C558" s="2" t="n">
@@ -23223,7 +23223,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C559" s="2" t="n">
@@ -23262,7 +23262,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C560" s="2" t="n">
@@ -23305,7 +23305,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C561" s="2" t="n">
@@ -23344,7 +23344,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C562" s="2" t="n">
@@ -23387,7 +23387,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C563" s="2" t="n">
@@ -23465,7 +23465,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C565" s="2" t="n">
@@ -23508,7 +23508,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C566" s="2" t="n">
@@ -23551,7 +23551,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C567" s="2" t="n">
@@ -23594,7 +23594,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C568" s="2" t="n">
@@ -23633,7 +23633,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C569" s="2" t="n">
@@ -23672,7 +23672,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C570" s="2" t="n">
@@ -23711,7 +23711,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C571" s="2" t="n">
@@ -23754,7 +23754,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C572" s="2" t="n">
@@ -23793,7 +23793,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C573" s="2" t="n">
@@ -23836,7 +23836,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C574" s="2" t="n">
@@ -23914,7 +23914,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C576" s="2" t="n">
@@ -23957,7 +23957,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C577" s="2" t="n">
@@ -24000,7 +24000,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C578" s="2" t="n">
@@ -24043,7 +24043,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C579" s="2" t="n">
@@ -24082,7 +24082,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C580" s="2" t="n">
@@ -24121,7 +24121,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C581" s="2" t="n">
@@ -24160,7 +24160,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C582" s="2" t="n">
@@ -24203,7 +24203,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C583" s="2" t="n">
@@ -24242,7 +24242,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C584" s="2" t="n">
@@ -24285,7 +24285,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C585" s="2" t="n">
@@ -24363,7 +24363,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C587" s="2" t="n">
@@ -24406,7 +24406,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C588" s="2" t="n">
@@ -24449,7 +24449,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C589" s="2" t="n">
@@ -24492,7 +24492,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C590" s="2" t="n">
@@ -24531,7 +24531,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C591" s="2" t="n">
@@ -24570,7 +24570,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C592" s="2" t="n">
@@ -24609,7 +24609,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C593" s="2" t="n">
@@ -24652,7 +24652,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C594" s="2" t="n">
@@ -24691,7 +24691,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C595" s="2" t="n">
@@ -24734,7 +24734,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C596" s="2" t="n">
@@ -24812,7 +24812,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C598" s="2" t="n">
@@ -24855,7 +24855,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C599" s="2" t="n">
@@ -24898,7 +24898,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C600" s="2" t="n">
@@ -24941,7 +24941,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C601" s="2" t="n">
@@ -24980,7 +24980,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C602" s="2" t="n">
@@ -25019,7 +25019,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C603" s="2" t="n">
@@ -25058,7 +25058,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C604" s="2" t="n">
@@ -25101,7 +25101,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C605" s="2" t="n">
@@ -25144,7 +25144,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C606" s="2" t="n">
@@ -25183,7 +25183,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C607" s="2" t="n">
@@ -25226,7 +25226,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C608" s="2" t="n">
@@ -25304,7 +25304,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C610" s="2" t="n">
@@ -25347,7 +25347,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C611" s="2" t="n">
@@ -25390,7 +25390,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C612" s="2" t="n">
@@ -25433,7 +25433,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C613" s="2" t="n">
@@ -25472,7 +25472,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C614" s="2" t="n">
@@ -25511,7 +25511,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C615" s="2" t="n">
@@ -25550,7 +25550,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C616" s="2" t="n">
@@ -25593,7 +25593,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C617" s="2" t="n">
@@ -25636,7 +25636,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C618" s="2" t="n">
@@ -25675,7 +25675,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C619" s="2" t="n">
@@ -25718,7 +25718,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C620" s="2" t="n">
@@ -25796,7 +25796,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C622" s="2" t="n">
@@ -25839,7 +25839,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C623" s="2" t="n">
@@ -25882,7 +25882,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C624" s="2" t="n">
@@ -25925,7 +25925,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C625" s="2" t="n">
@@ -25964,7 +25964,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C626" s="2" t="n">
@@ -26003,7 +26003,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C627" s="2" t="n">
@@ -26042,7 +26042,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C628" s="2" t="n">
@@ -26085,7 +26085,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C629" s="2" t="n">
@@ -26128,7 +26128,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C630" s="2" t="n">
@@ -26167,7 +26167,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C631" s="2" t="n">
@@ -26210,7 +26210,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C632" s="2" t="n">
@@ -26288,7 +26288,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C634" s="2" t="n">
@@ -26331,7 +26331,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C635" s="2" t="n">
@@ -26374,7 +26374,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C636" s="2" t="n">
@@ -26417,7 +26417,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C637" s="2" t="n">
@@ -26456,7 +26456,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C638" s="2" t="n">
@@ -26495,7 +26495,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C639" s="2" t="n">
@@ -26534,7 +26534,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C640" s="2" t="n">
@@ -26577,7 +26577,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C641" s="2" t="n">
@@ -26620,7 +26620,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C642" s="2" t="n">
@@ -26659,7 +26659,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C643" s="2" t="n">
@@ -26702,7 +26702,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C644" s="2" t="n">
@@ -26780,7 +26780,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C646" s="2" t="n">
@@ -26823,7 +26823,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C647" s="2" t="n">
@@ -26866,7 +26866,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C648" s="2" t="n">
@@ -26909,7 +26909,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C649" s="2" t="n">
@@ -26948,7 +26948,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C650" s="2" t="n">
@@ -26987,7 +26987,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C651" s="2" t="n">
@@ -27026,7 +27026,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C652" s="2" t="n">
@@ -27069,7 +27069,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C653" s="2" t="n">
@@ -27108,7 +27108,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C654" s="2" t="n">
@@ -27151,7 +27151,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C655" s="2" t="n">
@@ -27229,7 +27229,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C657" s="2" t="n">
@@ -27272,7 +27272,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C658" s="2" t="n">
@@ -27315,7 +27315,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C659" s="2" t="n">
@@ -27358,7 +27358,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C660" s="2" t="n">
@@ -27397,7 +27397,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C661" s="2" t="n">
@@ -27436,7 +27436,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C662" s="2" t="n">
@@ -27475,7 +27475,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C663" s="2" t="n">
@@ -27518,7 +27518,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C664" s="2" t="n">
@@ -27561,7 +27561,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C665" s="2" t="n">
@@ -27600,7 +27600,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C666" s="2" t="n">
@@ -27643,7 +27643,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C667" s="2" t="n">
@@ -27721,7 +27721,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C669" s="2" t="n">
@@ -27764,7 +27764,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C670" s="2" t="n">
@@ -27807,7 +27807,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C671" s="2" t="n">
@@ -27850,7 +27850,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C672" s="2" t="n">
@@ -27889,7 +27889,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C673" s="2" t="n">
@@ -27928,7 +27928,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C674" s="2" t="n">
@@ -27967,7 +27967,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C675" s="2" t="n">
@@ -28010,7 +28010,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C676" s="2" t="n">
@@ -28049,7 +28049,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C677" s="2" t="n">
@@ -28092,7 +28092,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C678" s="2" t="n">
@@ -28170,7 +28170,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C680" s="2" t="n">
@@ -28213,7 +28213,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C681" s="2" t="n">
@@ -28256,7 +28256,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C682" s="2" t="n">
@@ -28299,7 +28299,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C683" s="2" t="n">
@@ -28338,7 +28338,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C684" s="2" t="n">
@@ -28377,7 +28377,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C685" s="2" t="n">
@@ -28416,7 +28416,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C686" s="2" t="n">
@@ -28459,7 +28459,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C687" s="2" t="n">
@@ -28498,7 +28498,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C688" s="2" t="n">
@@ -28541,7 +28541,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C689" s="2" t="n">
@@ -28619,7 +28619,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C691" s="2" t="n">
@@ -28662,7 +28662,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C692" s="2" t="n">
@@ -28705,7 +28705,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C693" s="2" t="n">
@@ -28748,7 +28748,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C694" s="2" t="n">
@@ -28787,7 +28787,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C695" s="2" t="n">
@@ -28826,7 +28826,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C696" s="2" t="n">
@@ -28865,7 +28865,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C697" s="2" t="n">
@@ -28908,7 +28908,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C698" s="2" t="n">
@@ -28951,7 +28951,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C699" s="2" t="n">
@@ -28990,7 +28990,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C700" s="2" t="n">
@@ -29033,7 +29033,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C701" s="2" t="n">
@@ -29111,7 +29111,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C703" s="2" t="n">
@@ -29154,7 +29154,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C704" s="2" t="n">
@@ -29197,7 +29197,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C705" s="2" t="n">
@@ -29240,7 +29240,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C706" s="2" t="n">
@@ -29279,7 +29279,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C707" s="2" t="n">
@@ -29318,7 +29318,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C708" s="2" t="n">
@@ -29357,7 +29357,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C709" s="2" t="n">
@@ -29400,7 +29400,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C710" s="2" t="n">
@@ -29443,7 +29443,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C711" s="2" t="n">
@@ -29482,7 +29482,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C712" s="2" t="n">
@@ -29525,7 +29525,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C713" s="2" t="n">
@@ -29603,7 +29603,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C715" s="2" t="n">
@@ -29646,7 +29646,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C716" s="2" t="n">
@@ -29689,7 +29689,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C717" s="2" t="n">
@@ -29732,7 +29732,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C718" s="2" t="n">
@@ -29771,7 +29771,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C719" s="2" t="n">
@@ -29810,7 +29810,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C720" s="2" t="n">
